--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43629,6 +43629,43 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43666,6 +43666,43 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43703,6 +43703,43 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43740,6 +43740,41 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>28500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43775,6 +43775,41 @@
         <v>28500</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>30100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43810,6 +43810,43 @@
         <v>30100</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43847,6 +43847,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43884,6 +43884,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43921,6 +43921,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43958,6 +43958,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43993,6 +43993,76 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>91800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44063,6 +44063,78 @@
         <v>91800</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44135,6 +44135,43 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44172,6 +44172,43 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44209,6 +44209,41 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>12300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44244,6 +44244,41 @@
         <v>12300</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>8700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44279,6 +44279,78 @@
         <v>8700</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44351,6 +44351,41 @@
         </is>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44386,6 +44386,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>156000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1744"/>
+  <dimension ref="A1:I1745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62306,6 +62306,43 @@
         <v>156000</v>
       </c>
     </row>
+    <row r="1745">
+      <c r="A1745" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1745" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1745" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1745" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1745" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1745"/>
+  <dimension ref="A1:I1746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62343,6 +62343,41 @@
         </is>
       </c>
     </row>
+    <row r="1746">
+      <c r="A1746" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1746" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1746" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1746" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1746"/>
+  <dimension ref="A1:I1747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62378,6 +62378,43 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="1747">
+      <c r="A1747" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1747" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1747" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1747" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1747" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1747"/>
+  <dimension ref="A1:I1748"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62415,6 +62415,43 @@
         </is>
       </c>
     </row>
+    <row r="1748">
+      <c r="A1748" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1748" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1748" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1748" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1748" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1748"/>
+  <dimension ref="A1:I1749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62452,6 +62452,41 @@
         </is>
       </c>
     </row>
+    <row r="1749">
+      <c r="A1749" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1749" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1749" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1749" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1749"/>
+  <dimension ref="A1:I1750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62487,6 +62487,43 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1750">
+      <c r="A1750" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1750" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1750" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1750" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1750" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1750"/>
+  <dimension ref="A1:I1751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62524,6 +62524,41 @@
         </is>
       </c>
     </row>
+    <row r="1751">
+      <c r="A1751" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1751" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1751" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1751" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>8100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1751"/>
+  <dimension ref="A1:I1752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62559,6 +62559,41 @@
         <v>8100</v>
       </c>
     </row>
+    <row r="1752">
+      <c r="A1752" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1752" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1752" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1752" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1752"/>
+  <dimension ref="A1:I1753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62594,6 +62594,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1753">
+      <c r="A1753" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1753" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1753" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1753" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1753" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1753"/>
+  <dimension ref="A1:I1754"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62631,6 +62631,41 @@
         </is>
       </c>
     </row>
+    <row r="1754">
+      <c r="A1754" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1754" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1754" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1754" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>20600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1754"/>
+  <dimension ref="A1:I1755"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62666,6 +62666,43 @@
         <v>20600</v>
       </c>
     </row>
+    <row r="1755">
+      <c r="A1755" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1755" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1755" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1755" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1755" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1755"/>
+  <dimension ref="A1:I1756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62703,6 +62703,41 @@
         </is>
       </c>
     </row>
+    <row r="1756">
+      <c r="A1756" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1756" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1756" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1756" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1756"/>
+  <dimension ref="A1:I1757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62738,6 +62738,43 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1757">
+      <c r="A1757" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1757" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1757" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1757" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1757" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1757"/>
+  <dimension ref="A1:I1758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62775,6 +62775,43 @@
         </is>
       </c>
     </row>
+    <row r="1758">
+      <c r="A1758" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1758" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1758" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1758" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1758" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1758"/>
+  <dimension ref="A1:I1759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62812,6 +62812,43 @@
         </is>
       </c>
     </row>
+    <row r="1759">
+      <c r="A1759" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1759" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1759" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1759" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1759" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1788"/>
+  <dimension ref="A1:I1789"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63864,6 +63864,43 @@
         </is>
       </c>
     </row>
+    <row r="1789">
+      <c r="A1789" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1789" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1789" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1789" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1789" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1789" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1789"/>
+  <dimension ref="A1:I1790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63901,6 +63901,41 @@
         </is>
       </c>
     </row>
+    <row r="1790">
+      <c r="A1790" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1790" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1790" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1790" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1790" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>9900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1790"/>
+  <dimension ref="A1:I1791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63936,6 +63936,41 @@
         <v>9900</v>
       </c>
     </row>
+    <row r="1791">
+      <c r="A1791" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1791" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1791" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1791" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>26000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1791"/>
+  <dimension ref="A1:I1792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63971,6 +63971,41 @@
         <v>26000</v>
       </c>
     </row>
+    <row r="1792">
+      <c r="A1792" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1792" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1792" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1792" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>2500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1792"/>
+  <dimension ref="A1:I1793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64006,6 +64006,41 @@
         <v>2500</v>
       </c>
     </row>
+    <row r="1793">
+      <c r="A1793" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1793" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1793" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1793" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>10200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1793"/>
+  <dimension ref="A1:I1794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64041,6 +64041,41 @@
         <v>10200</v>
       </c>
     </row>
+    <row r="1794">
+      <c r="A1794" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1794" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1794" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1794" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>41000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1794"/>
+  <dimension ref="A1:I1795"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64076,6 +64076,41 @@
         <v>41000</v>
       </c>
     </row>
+    <row r="1795">
+      <c r="A1795" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1795" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1795" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1795" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>17400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1795"/>
+  <dimension ref="A1:I1796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64111,6 +64111,43 @@
         <v>17400</v>
       </c>
     </row>
+    <row r="1796">
+      <c r="A1796" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1796" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1796" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1796" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1796" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1796"/>
+  <dimension ref="A1:I1797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64148,6 +64148,43 @@
         </is>
       </c>
     </row>
+    <row r="1797">
+      <c r="A1797" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1797" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1797" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1797" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1797" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1797"/>
+  <dimension ref="A1:I1798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64185,6 +64185,43 @@
         </is>
       </c>
     </row>
+    <row r="1798">
+      <c r="A1798" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1798" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1798" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1798" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1798" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1798" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1798"/>
+  <dimension ref="A1:I1800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64222,6 +64222,80 @@
         </is>
       </c>
     </row>
+    <row r="1799">
+      <c r="A1799" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1799" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1799" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1799" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1799" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1799" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1800" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1800" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1800" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1800" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1800"/>
+  <dimension ref="A1:I1801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64296,6 +64296,43 @@
         </is>
       </c>
     </row>
+    <row r="1801">
+      <c r="A1801" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1801" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1801" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1801" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1801" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1801" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1801"/>
+  <dimension ref="A1:I1804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64333,6 +64333,117 @@
         </is>
       </c>
     </row>
+    <row r="1802">
+      <c r="A1802" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1802" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1802" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1802" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1802" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1803" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1803" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1803" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1803" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1803" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1804" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1804" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1804" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1804" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1804"/>
+  <dimension ref="A1:I1805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64444,6 +64444,43 @@
         </is>
       </c>
     </row>
+    <row r="1805">
+      <c r="A1805" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1805" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1805" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1805" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1805" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1805"/>
+  <dimension ref="A1:I1806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64481,6 +64481,43 @@
         </is>
       </c>
     </row>
+    <row r="1806">
+      <c r="A1806" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1806" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1806" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1806" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1806" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0149.xlsx
+++ b/data/0149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1806"/>
+  <dimension ref="A1:I1809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64518,6 +64518,117 @@
         </is>
       </c>
     </row>
+    <row r="1807">
+      <c r="A1807" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1807" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1807" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1807" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1807" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1808" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1808" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1808" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1808" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1809" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1809" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="D1809" t="inlineStr">
+        <is>
+          <t>FIBON</t>
+        </is>
+      </c>
+      <c r="E1809" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1809" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
